--- a/medicine/Premiers secours et secourisme/Fédération_internationale_de_sauvetage_aquatique/Fédération_internationale_de_sauvetage_aquatique.xlsx
+++ b/medicine/Premiers secours et secourisme/Fédération_internationale_de_sauvetage_aquatique/Fédération_internationale_de_sauvetage_aquatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_de_sauvetage_aquatique</t>
+          <t>Fédération_internationale_de_sauvetage_aquatique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Fédération internationale de sauvetage aquatique[1] (en anglais et officiellement International Life Saving Federation) (ILSF) est l'autorité mondiale en matière de prévention des noyades, de sauvetage et des sports de sauvetage.
+La Fédération internationale de sauvetage aquatique (en anglais et officiellement International Life Saving Federation) (ILSF) est l'autorité mondiale en matière de prévention des noyades, de sauvetage et des sports de sauvetage.
 ILSF dirige, soutient et collabore avec des organisations nationales et internationales engagées dans la prévention de la noyade, la sécurité aquatique, le sauvetage aquatique, le sauvetage, le sauvetage sportif.
 Elle est responsable du classement mondial des équipes nationales, de la définition des règles officielles et de l'organisation de compétitions internationales majeures.
 L'ILSF est affiliée à l'Association générale des fédérations internationales de sports et à l'Association des fédérations internationales de sports reconnues par le Comité international olympique en 1996. Elle est également partie prenante de l'Agence mondiale antidopage.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_de_sauvetage_aquatique</t>
+          <t>Fédération_internationale_de_sauvetage_aquatique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux XVIIIe et XIXe siècles, un certain nombre d'organisations de sauvetage ont été créées pour venir en aide aux personnes qui ont besoin de secours et de rétablissement. Les plus anciennes sont la Maatschappij tot Redding van Drenkelingen (1767) d'Amsterdam , la Société centrale de sauvetage des naufragés (1865) en France[2] et la Royal Life Saving Society (1891) en Angleterre[3].
-À la fin du XIXe siècle, plusieurs organisations nationales de sauvetage ont travaillé ensemble, mais de manière informelle. Ils voulaient apprendre les uns des autres en échangeant diverses techniques et expériences de sauvetage[3]. Les activités internationales de sauvetage remontent à 1878, année du premier Congrès mondial tenu à Marseille.
-Deux organisations ont été créées pour promouvoir les objectifs de sauvetage : la Fédération internationale de sauvetage aquatique (FIS) en 1910, puis à la création de World Life Saving (WLS). Ces deux structures ont fusionné en 1993 pour devenir la Fédération internationale de sauvetage aquatique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux XVIIIe et XIXe siècles, un certain nombre d'organisations de sauvetage ont été créées pour venir en aide aux personnes qui ont besoin de secours et de rétablissement. Les plus anciennes sont la Maatschappij tot Redding van Drenkelingen (1767) d'Amsterdam , la Société centrale de sauvetage des naufragés (1865) en France et la Royal Life Saving Society (1891) en Angleterre.
+À la fin du XIXe siècle, plusieurs organisations nationales de sauvetage ont travaillé ensemble, mais de manière informelle. Ils voulaient apprendre les uns des autres en échangeant diverses techniques et expériences de sauvetage. Les activités internationales de sauvetage remontent à 1878, année du premier Congrès mondial tenu à Marseille.
+Deux organisations ont été créées pour promouvoir les objectifs de sauvetage : la Fédération internationale de sauvetage aquatique (FIS) en 1910, puis à la création de World Life Saving (WLS). Ces deux structures ont fusionné en 1993 pour devenir la Fédération internationale de sauvetage aquatique.
 Lors de la création de l'ILS, une charte a été signée entre FIS, WLS et ILS.
 </t>
         </is>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_internationale_de_sauvetage_aquatique</t>
+          <t>Fédération_internationale_de_sauvetage_aquatique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Associations membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe trois statuts : membres de droits, membres associés et membres affiliés. En 2019, on compte 92 membres de droits.
 </t>
